--- a/app_py/Base - Respon.xlsx
+++ b/app_py/Base - Respon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvlopes\Desktop\Scripts\PYTHON\Hexagon\Contingência\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvlopes\Desktop\Scripts\Hxg_auto\App_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9F654-F451-43B1-B5DB-0194E63AF918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5561B-4AEE-48C5-8556-7F6F25F46D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cont. Maquinas" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -621,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +718,7 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>15033</v>
@@ -1216,7 +1238,7 @@
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
         <v>15268</v>
@@ -1328,7 +1350,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>9</v>
@@ -1388,7 +1410,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>18</v>
@@ -1408,7 +1430,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>40</v>
@@ -1419,7 +1441,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="2">
-        <v>24809</v>
+        <v>15270</v>
       </c>
       <c r="C40" s="2">
         <v>2098751</v>
@@ -1428,7 +1450,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>9</v>
@@ -1468,7 +1490,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>32</v>
@@ -1528,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>16</v>
@@ -1668,6 +1690,9 @@
   </sheetData>
   <autoFilter ref="A1:F66" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B1 B50:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
